--- a/output/mysiadlo/2023/sheets/year_2023.xlsx
+++ b/output/mysiadlo/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>52.95161290322581</v>
+        <v>55.45435304636481</v>
       </c>
       <c r="C2" t="n">
-        <v>46.99677419354838</v>
+        <v>50.42933163073887</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>56.28214285714287</v>
+        <v>57.05886261293752</v>
       </c>
       <c r="C3" t="n">
-        <v>50.38571428571429</v>
+        <v>51.16879076640417</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>54.07741935483871</v>
+        <v>56.68192685388626</v>
       </c>
       <c r="C4" t="n">
-        <v>48.39354838709677</v>
+        <v>51.04012208929657</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>53.45666666666667</v>
+        <v>56.12121795048203</v>
       </c>
       <c r="C5" t="n">
-        <v>49.37</v>
+        <v>50.85140171124124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>51.69032258064515</v>
+        <v>55.17224463679469</v>
       </c>
       <c r="C6" t="n">
-        <v>48.40000000000001</v>
+        <v>49.96396657106295</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>53.02999999999999</v>
+        <v>56.32561494142585</v>
       </c>
       <c r="C7" t="n">
-        <v>50.09666666666666</v>
+        <v>51.52002049784559</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>57.03870967741936</v>
+        <v>57.82605330549546</v>
       </c>
       <c r="C8" t="n">
-        <v>52.59677419354838</v>
+        <v>53.35054320837436</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54.19677419354839</v>
+        <v>56.48753262193155</v>
       </c>
       <c r="C9" t="n">
-        <v>51.49354838709677</v>
+        <v>52.34416675848331</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>52.84666666666666</v>
+        <v>56.24778140880147</v>
       </c>
       <c r="C10" t="n">
-        <v>49.09000000000001</v>
+        <v>51.34822240421702</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>56.33870967741936</v>
+        <v>57.55161805705556</v>
       </c>
       <c r="C11" t="n">
-        <v>51.51612903225807</v>
+        <v>52.57458655527729</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53.28666666666667</v>
+        <v>56.26275821761403</v>
       </c>
       <c r="C12" t="n">
-        <v>47.58333333333334</v>
+        <v>50.91025078053181</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>54.05806451612903</v>
+        <v>56.62805714991934</v>
       </c>
       <c r="C13" t="n">
-        <v>49.69677419354839</v>
+        <v>51.28667316893169</v>
       </c>
     </row>
   </sheetData>
